--- a/Table/Table_xls/x循环任务/d道具随机使用坐标生成表.xlsx
+++ b/Table/Table_xls/x循环任务/d道具随机使用坐标生成表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12510"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -668,8 +668,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -691,9 +691,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -704,7 +719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,64 +732,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -801,23 +763,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -831,6 +785,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -839,8 +809,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,7 +896,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,13 +944,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +992,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,37 +1034,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,103 +1070,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,11 +1090,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,73 +1182,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,148 +1192,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1774,18 +1774,18 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.6283185840708" style="10" customWidth="1"/>
-    <col min="2" max="2" width="84.8761061946903" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.3716814159292" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="7.50442477876106" style="10"/>
+    <col min="1" max="1" width="15.6296296296296" style="10" customWidth="1"/>
+    <col min="2" max="2" width="84.8796296296296" style="10" customWidth="1"/>
+    <col min="3" max="3" width="11.3703703703704" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="7.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" ht="28" customHeight="1" spans="1:4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1853,10 +1853,10 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.2477876106195" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.2477876106195" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -51416,7 +51416,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
